--- a/loan_products_and_rates_for_chatbot.xlsx
+++ b/loan_products_and_rates_for_chatbot.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yash Parmar\OneDrive\Desktop\4rth year projet\PFM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yash Parmar\OneDrive\Desktop\4rth year projet\project pfm final\PFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4335FA6D-982E-4470-B03A-B247551D4B8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BC54E8-78B5-4CD8-B583-4CFF7067540A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
